--- a/2018/Planejamento.xlsx
+++ b/2018/Planejamento.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>Planejamento LTP2</t>
   </si>
@@ -574,6 +574,67 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -640,67 +701,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1034,7 +1034,7 @@
   <dimension ref="B1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" x14ac:dyDescent="0.3"/>
@@ -1043,32 +1043,32 @@
     <col min="2" max="2" width="9.28515625" style="28" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" style="29" customWidth="1"/>
     <col min="4" max="4" width="36.5703125" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="103" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="78" customWidth="1"/>
     <col min="6" max="6" width="105.28515625" style="30" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="70"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="91"/>
     </row>
     <row r="2" spans="2:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="65"/>
+      <c r="C2" s="86"/>
       <c r="D2" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="67"/>
+      <c r="F2" s="88"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="32">
@@ -1078,7 +1078,7 @@
         <f>REPT("g",B3*10)</f>
         <v>gggggggggg</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="92" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="51" t="s">
@@ -1099,8 +1099,8 @@
         <f>REPT("g",B4*10)</f>
         <v>gggggggggg</v>
       </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="86" t="s">
+      <c r="D4" s="93"/>
+      <c r="E4" s="61" t="s">
         <v>46</v>
       </c>
       <c r="F4" s="53" t="s">
@@ -1111,13 +1111,17 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="33"/>
+      <c r="B5" s="33">
+        <v>1</v>
+      </c>
       <c r="C5" s="2" t="str">
         <f t="shared" ref="C5:C39" si="0">REPT("g",B5*10)</f>
-        <v/>
-      </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="86"/>
+        <v>gggggggggg</v>
+      </c>
+      <c r="D5" s="93"/>
+      <c r="E5" s="61" t="s">
+        <v>46</v>
+      </c>
       <c r="F5" s="53" t="s">
         <v>2</v>
       </c>
@@ -1126,13 +1130,15 @@
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="33"/>
+      <c r="B6" s="33">
+        <v>0.8</v>
+      </c>
       <c r="C6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D6" s="72"/>
-      <c r="E6" s="86"/>
+        <v>gggggggg</v>
+      </c>
+      <c r="D6" s="93"/>
+      <c r="E6" s="61"/>
       <c r="F6" s="53" t="s">
         <v>34</v>
       </c>
@@ -1146,8 +1152,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D7" s="72"/>
-      <c r="E7" s="86"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="61"/>
       <c r="F7" s="53" t="s">
         <v>35</v>
       </c>
@@ -1161,8 +1167,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D8" s="72"/>
-      <c r="E8" s="86"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="61"/>
       <c r="F8" s="53" t="s">
         <v>5</v>
       </c>
@@ -1176,8 +1182,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D9" s="73"/>
-      <c r="E9" s="87"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="62"/>
       <c r="F9" s="54" t="s">
         <v>36</v>
       </c>
@@ -1191,10 +1197,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D10" s="74" t="s">
+      <c r="D10" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="88"/>
+      <c r="E10" s="63"/>
       <c r="F10" s="55" t="s">
         <v>3</v>
       </c>
@@ -1208,8 +1214,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D11" s="75"/>
-      <c r="E11" s="89"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="64"/>
       <c r="F11" s="56" t="s">
         <v>37</v>
       </c>
@@ -1223,8 +1229,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D12" s="75"/>
-      <c r="E12" s="89"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="64"/>
       <c r="F12" s="56" t="s">
         <v>38</v>
       </c>
@@ -1238,8 +1244,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D13" s="75"/>
-      <c r="E13" s="89"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="64"/>
       <c r="F13" s="56" t="s">
         <v>39</v>
       </c>
@@ -1253,8 +1259,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D14" s="75"/>
-      <c r="E14" s="89"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="64"/>
       <c r="F14" s="56" t="s">
         <v>40</v>
       </c>
@@ -1268,8 +1274,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D15" s="75"/>
-      <c r="E15" s="89"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="64"/>
       <c r="F15" s="56" t="s">
         <v>41</v>
       </c>
@@ -1283,8 +1289,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D16" s="76"/>
-      <c r="E16" s="90"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="65"/>
       <c r="F16" s="57" t="s">
         <v>42</v>
       </c>
@@ -1298,10 +1304,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D17" s="77" t="s">
+      <c r="D17" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="91"/>
+      <c r="E17" s="66"/>
       <c r="F17" s="58" t="s">
         <v>8</v>
       </c>
@@ -1315,8 +1321,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D18" s="78"/>
-      <c r="E18" s="92"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="67"/>
       <c r="F18" s="59" t="s">
         <v>9</v>
       </c>
@@ -1330,8 +1336,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D19" s="78"/>
-      <c r="E19" s="92"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="67"/>
       <c r="F19" s="59" t="s">
         <v>11</v>
       </c>
@@ -1345,8 +1351,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D20" s="78"/>
-      <c r="E20" s="92"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="67"/>
       <c r="F20" s="59" t="s">
         <v>10</v>
       </c>
@@ -1360,8 +1366,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D21" s="78"/>
-      <c r="E21" s="92"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="67"/>
       <c r="F21" s="59" t="s">
         <v>12</v>
       </c>
@@ -1375,8 +1381,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D22" s="78"/>
-      <c r="E22" s="92"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="67"/>
       <c r="F22" s="59" t="s">
         <v>13</v>
       </c>
@@ -1390,8 +1396,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D23" s="79"/>
-      <c r="E23" s="93"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="68"/>
       <c r="F23" s="60" t="s">
         <v>14</v>
       </c>
@@ -1405,10 +1411,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D24" s="80" t="s">
+      <c r="D24" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="94"/>
+      <c r="E24" s="69"/>
       <c r="F24" s="11" t="s">
         <v>16</v>
       </c>
@@ -1422,8 +1428,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D25" s="81"/>
-      <c r="E25" s="95"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="70"/>
       <c r="F25" s="13" t="s">
         <v>17</v>
       </c>
@@ -1437,8 +1443,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D26" s="81"/>
-      <c r="E26" s="95"/>
+      <c r="D26" s="102"/>
+      <c r="E26" s="70"/>
       <c r="F26" s="13" t="s">
         <v>18</v>
       </c>
@@ -1452,8 +1458,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D27" s="81"/>
-      <c r="E27" s="95"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="70"/>
       <c r="F27" s="13" t="s">
         <v>19</v>
       </c>
@@ -1467,8 +1473,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D28" s="81"/>
-      <c r="E28" s="95"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="70"/>
       <c r="F28" s="13" t="s">
         <v>13</v>
       </c>
@@ -1482,8 +1488,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D29" s="81"/>
-      <c r="E29" s="95"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="70"/>
       <c r="F29" s="13" t="s">
         <v>21</v>
       </c>
@@ -1497,8 +1503,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D30" s="82"/>
-      <c r="E30" s="96"/>
+      <c r="D30" s="103"/>
+      <c r="E30" s="71"/>
       <c r="F30" s="15" t="s">
         <v>20</v>
       </c>
@@ -1512,10 +1518,10 @@
         <f t="shared" ref="C31:C36" si="1">REPT("g",B31*10)</f>
         <v/>
       </c>
-      <c r="D31" s="61" t="s">
+      <c r="D31" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="E31" s="97"/>
+      <c r="E31" s="72"/>
       <c r="F31" s="23" t="s">
         <v>27</v>
       </c>
@@ -1529,8 +1535,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D32" s="62"/>
-      <c r="E32" s="98"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="73"/>
       <c r="F32" s="25" t="s">
         <v>28</v>
       </c>
@@ -1544,8 +1550,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D33" s="62"/>
-      <c r="E33" s="98"/>
+      <c r="D33" s="83"/>
+      <c r="E33" s="73"/>
       <c r="F33" s="25" t="s">
         <v>29</v>
       </c>
@@ -1559,8 +1565,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D34" s="62"/>
-      <c r="E34" s="98"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="73"/>
       <c r="F34" s="25" t="s">
         <v>30</v>
       </c>
@@ -1574,8 +1580,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D35" s="62"/>
-      <c r="E35" s="98"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="73"/>
       <c r="F35" s="25" t="s">
         <v>31</v>
       </c>
@@ -1589,8 +1595,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D36" s="63"/>
-      <c r="E36" s="99"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="74"/>
       <c r="F36" s="27" t="s">
         <v>32</v>
       </c>
@@ -1604,10 +1610,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D37" s="83" t="s">
+      <c r="D37" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="E37" s="100"/>
+      <c r="E37" s="75"/>
       <c r="F37" s="17" t="s">
         <v>25</v>
       </c>
@@ -1621,8 +1627,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D38" s="84"/>
-      <c r="E38" s="101"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="76"/>
       <c r="F38" s="19" t="s">
         <v>23</v>
       </c>
@@ -1636,8 +1642,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D39" s="85"/>
-      <c r="E39" s="102"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="77"/>
       <c r="F39" s="21" t="s">
         <v>24</v>
       </c>
